--- a/data/trans_orig/P15E_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P15E_R-Edad-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>8600</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>4944</v>
+        <v>5425</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>11804</v>
+        <v>11808</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.5698882305534383</v>
+        <v>0.5698882305534384</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3276234998325006</v>
+        <v>0.3595109837418453</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.7822037108360608</v>
+        <v>0.7824381544742306</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>40</v>
@@ -762,19 +762,19 @@
         <v>21558</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>17300</v>
+        <v>17596</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>25462</v>
+        <v>25333</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.6664040893130736</v>
+        <v>0.6664040893130735</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5347708215105507</v>
+        <v>0.5439354903421564</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7870640826821031</v>
+        <v>0.7831014675247461</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>54</v>
@@ -783,19 +783,19 @@
         <v>30158</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>24767</v>
+        <v>24878</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>35385</v>
+        <v>35055</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.6357019288461095</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.522058648662675</v>
+        <v>0.5244031689102846</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.7458842177884878</v>
+        <v>0.7389122664468711</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>6491</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3287</v>
+        <v>3283</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>10147</v>
+        <v>9666</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4301117694465617</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2177962891639393</v>
+        <v>0.2175618455257692</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6723765001674997</v>
+        <v>0.6404890162581544</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>20</v>
@@ -833,19 +833,19 @@
         <v>10792</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>6888</v>
+        <v>7017</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>15050</v>
+        <v>14754</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3335959106869265</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2129359173178969</v>
+        <v>0.2168985324752539</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4652291784894496</v>
+        <v>0.4560645096578438</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>28</v>
@@ -854,19 +854,19 @@
         <v>17283</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>12056</v>
+        <v>12386</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>22674</v>
+        <v>22563</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3642980711538905</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2541157822115123</v>
+        <v>0.261087733553129</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4779413513373249</v>
+        <v>0.4755968310897156</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>15793</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>12528</v>
+        <v>11791</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>19074</v>
+        <v>18913</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.6862672379153506</v>
+        <v>0.6862672379153509</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.544395401025114</v>
+        <v>0.5123762542346446</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.8288150401983966</v>
+        <v>0.8218313234481651</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>83</v>
@@ -979,19 +979,19 @@
         <v>43344</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>37755</v>
+        <v>38120</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>47147</v>
+        <v>47164</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.7650586688722363</v>
+        <v>0.7650586688722365</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.6664122917472445</v>
+        <v>0.6728510067074003</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.8321938576818249</v>
+        <v>0.8324956628941464</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>109</v>
@@ -1000,19 +1000,19 @@
         <v>59137</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>52579</v>
+        <v>53003</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>64234</v>
+        <v>64174</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.7422990238962177</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.6599886633552813</v>
+        <v>0.665304384288845</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.8062829055980865</v>
+        <v>0.8055249116246396</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>7220</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>3939</v>
+        <v>4100</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>10485</v>
+        <v>11222</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.3137327620846491</v>
+        <v>0.3137327620846493</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1711849598016034</v>
+        <v>0.178168676551835</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4556045989748865</v>
+        <v>0.4876237457653554</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>28</v>
@@ -1050,19 +1050,19 @@
         <v>13310</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>9507</v>
+        <v>9490</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>18899</v>
+        <v>18534</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2349413311277636</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1678061423181752</v>
+        <v>0.1675043371058541</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3335877082527556</v>
+        <v>0.3271489932925999</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>40</v>
@@ -1071,19 +1071,19 @@
         <v>20530</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>15433</v>
+        <v>15493</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>27088</v>
+        <v>26664</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2577009761037822</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1937170944019135</v>
+        <v>0.1944750883753604</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3400113366447188</v>
+        <v>0.3346956157111552</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>24393</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>18398</v>
+        <v>19214</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>28648</v>
+        <v>29090</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.6401745472237639</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4828359200218616</v>
+        <v>0.504242052078869</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.7518346003207015</v>
+        <v>0.7634351258886519</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>123</v>
@@ -1196,19 +1196,19 @@
         <v>64902</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>58372</v>
+        <v>58671</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>70339</v>
+        <v>70528</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.7292012165671371</v>
+        <v>0.7292012165671372</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.6558374810420674</v>
+        <v>0.6591992303814431</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7902907998026882</v>
+        <v>0.7924149587477185</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>163</v>
@@ -1217,19 +1217,19 @@
         <v>89295</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>81210</v>
+        <v>81512</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>96862</v>
+        <v>97160</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.702513263600106</v>
+        <v>0.7025132636001061</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.6389084942220862</v>
+        <v>0.6412783470582182</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.7620444482468249</v>
+        <v>0.7643902439353749</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>13711</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>9456</v>
+        <v>9014</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>19706</v>
+        <v>18890</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3598254527762362</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2481653996792983</v>
+        <v>0.236564874111348</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.517164079978138</v>
+        <v>0.4957579479211308</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>48</v>
@@ -1267,19 +1267,19 @@
         <v>24102</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>18665</v>
+        <v>18476</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>30632</v>
+        <v>30333</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2707987834328629</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2097092001973117</v>
+        <v>0.2075850412522814</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3441625189579326</v>
+        <v>0.3408007696185565</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>68</v>
@@ -1288,19 +1288,19 @@
         <v>37813</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>30246</v>
+        <v>29948</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>45898</v>
+        <v>45596</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.2974867363998938</v>
+        <v>0.2974867363998939</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2379555517531751</v>
+        <v>0.2356097560646251</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3610915057779139</v>
+        <v>0.3587216529417819</v>
       </c>
     </row>
     <row r="12">
